--- a/table_Info_Sc/SC_moduls.xlsx
+++ b/table_Info_Sc/SC_moduls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\autoStarCombats\table_Info_Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26087E44-AFC7-4D47-83E2-C19FCC5416F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9AB53A-4602-4433-AC25-CAEFF18E2C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1170" windowWidth="16200" windowHeight="11385" xr2:uid="{8888336E-109B-42B8-B775-E9F063DA1B7A}"/>
+    <workbookView xWindow="1845" yWindow="1170" windowWidth="24465" windowHeight="13485" xr2:uid="{8888336E-109B-42B8-B775-E9F063DA1B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>Холодный модуль (20)</t>
   </si>
@@ -90,12 +99,6 @@
     <t>Броня</t>
   </si>
   <si>
-    <t>Модуль Великой Победы (20) *Mihail*</t>
-  </si>
-  <si>
-    <t>АрхоМодуль v1 (20)</t>
-  </si>
-  <si>
     <t>двойное повреждение и техноурон</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
     <t>АрхоМодуль v.1/2 (20)  *Mihail*</t>
   </si>
   <si>
-    <t>АрхоМодуль v.2 (20)</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>общее</t>
+  </si>
+  <si>
+    <t>АрхоМодуль v.1/2 (21)  *Mihail*</t>
+  </si>
+  <si>
+    <t>АрхоМодуль v.2 (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сумма мифов: </t>
   </si>
 </sst>
 </file>
@@ -801,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,6 +1034,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,14 +1070,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1409,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C126463B-16FA-4C95-B787-F2E39F920898}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1472,7 @@
       </c>
       <c r="D1" s="62"/>
       <c r="E1" s="63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="34"/>
@@ -1448,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="88" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,33 +1497,33 @@
         <v>2</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" s="37">
         <f>B3</f>
         <v>62000</v>
       </c>
       <c r="I2" s="37">
-        <f>B26</f>
+        <f>B27</f>
         <v>130000</v>
       </c>
       <c r="J2" s="38">
-        <f>B50</f>
-        <v>46000</v>
+        <f>B52</f>
+        <v>32000</v>
       </c>
       <c r="K2">
         <f>SUM(H2:J2)</f>
-        <v>238000</v>
+        <v>224000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1517,19 +1549,19 @@
       </c>
       <c r="H3" s="1">
         <f>B4</f>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="I3" s="1">
-        <f>B27</f>
-        <v>12000</v>
+        <f>B28</f>
+        <v>10000</v>
       </c>
       <c r="J3" s="10">
-        <f>B51</f>
-        <v>0</v>
+        <f>B53</f>
+        <v>5000</v>
       </c>
       <c r="K3">
         <f>SUM(H3:J3)</f>
-        <v>20700</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1538,36 +1570,36 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" ref="B4:B22" si="0">SUM(C4:E4)</f>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="C4" s="3">
         <v>3200</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="68">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="37">
         <f>B5</f>
-        <v>8700</v>
+        <v>7700</v>
       </c>
       <c r="I4" s="37">
-        <f>B28</f>
-        <v>5500</v>
+        <f>B29</f>
+        <v>7000</v>
       </c>
       <c r="J4" s="38">
-        <f>B52</f>
-        <v>11000</v>
+        <f>B54</f>
+        <v>4500</v>
       </c>
       <c r="K4">
         <f>SUM(H4:J4)</f>
-        <v>25200</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1576,36 +1608,36 @@
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
-        <v>8700</v>
+        <v>7700</v>
       </c>
       <c r="C5" s="18">
         <v>3200</v>
       </c>
       <c r="D5" s="18">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="E5" s="67">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <f>B6</f>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="I5" s="1">
-        <f>B29</f>
-        <v>0</v>
+        <f>B30</f>
+        <v>2000</v>
       </c>
       <c r="J5" s="10">
-        <f>B53</f>
-        <v>5500</v>
+        <f>B55</f>
+        <v>5000</v>
       </c>
       <c r="K5">
         <f>SUM(H5:J5)</f>
-        <v>14200</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1614,36 +1646,36 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="C6" s="3">
         <v>3200</v>
       </c>
       <c r="D6" s="3">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="68">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" s="37">
         <f>B7</f>
-        <v>3200</v>
+        <v>7700</v>
       </c>
       <c r="I6" s="37">
-        <f>B30</f>
-        <v>0</v>
+        <f>B31</f>
+        <v>9000</v>
       </c>
       <c r="J6" s="38">
-        <f>B54</f>
-        <v>0</v>
+        <f>B56</f>
+        <v>4500</v>
       </c>
       <c r="K6">
         <f>SUM(H6:J6)</f>
-        <v>3200</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1652,16 +1684,16 @@
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>7700</v>
       </c>
       <c r="C7" s="18">
         <v>3200</v>
       </c>
       <c r="D7" s="18">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="67">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="39"/>
@@ -1688,23 +1720,23 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="37">
         <f>B10</f>
         <v>8700</v>
       </c>
       <c r="I8" s="37">
-        <f>B33</f>
-        <v>12000</v>
+        <f>B34</f>
+        <v>11000</v>
       </c>
       <c r="J8" s="38">
-        <f>B57</f>
-        <v>0</v>
+        <f>B59</f>
+        <v>5500</v>
       </c>
       <c r="K8">
-        <f>SUM(H8:J8)</f>
-        <v>20700</v>
+        <f t="shared" ref="K8:K14" si="1">SUM(H8:J8)</f>
+        <v>25200</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1713,36 +1745,36 @@
       </c>
       <c r="B9" s="14">
         <f t="shared" si="0"/>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="C9" s="18">
         <v>3200</v>
       </c>
       <c r="D9" s="18">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="67">
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <f>B9</f>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="I9" s="1">
-        <f>B32</f>
-        <v>5500</v>
+        <f>B33</f>
+        <v>4000</v>
       </c>
       <c r="J9" s="10">
-        <f>B56</f>
-        <v>11000</v>
+        <f>B58</f>
+        <v>5000</v>
       </c>
       <c r="K9">
-        <f>SUM(H9:J9)</f>
-        <v>25200</v>
+        <f t="shared" si="1"/>
+        <v>17200</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1764,23 +1796,23 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="37">
         <f>B11</f>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="I10" s="37">
-        <f>B34</f>
-        <v>17500</v>
+        <f>B35</f>
+        <v>14000</v>
       </c>
       <c r="J10" s="38">
-        <f>B58</f>
-        <v>5500</v>
+        <f>B60</f>
+        <v>5000</v>
       </c>
       <c r="K10">
-        <f>SUM(H10:J10)</f>
-        <v>31700</v>
+        <f t="shared" si="1"/>
+        <v>27200</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1789,7 +1821,7 @@
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="C11" s="18">
         <v>3200</v>
@@ -1798,26 +1830,26 @@
         <v>0</v>
       </c>
       <c r="E11" s="67">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1">
         <f>B8</f>
         <v>8700</v>
       </c>
       <c r="I11" s="1">
-        <f>B31</f>
+        <f>B32</f>
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <f>B55</f>
+        <f>B57</f>
         <v>5500</v>
       </c>
       <c r="K11">
-        <f>SUM(H11:J11)</f>
+        <f t="shared" si="1"/>
         <v>14200</v>
       </c>
     </row>
@@ -1827,36 +1859,36 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="C12" s="3">
         <v>7000</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="68">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12" s="37">
         <f>B12</f>
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="I12" s="37">
-        <f>B35</f>
-        <v>35000</v>
+        <f>B36</f>
+        <v>25000</v>
       </c>
       <c r="J12" s="38">
-        <f>B59</f>
-        <v>11000</v>
+        <f>B61</f>
+        <v>4000</v>
       </c>
       <c r="K12">
-        <f>SUM(H12:J12)</f>
-        <v>58500</v>
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -1879,22 +1911,22 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1">
         <f>B15</f>
         <v>61</v>
       </c>
       <c r="I13" s="1">
-        <f>B38</f>
+        <f>B39</f>
         <v>79</v>
       </c>
       <c r="J13" s="10">
-        <f>B62</f>
+        <f>B64</f>
         <v>46</v>
       </c>
       <c r="K13">
-        <f>SUM(H13:J13)</f>
+        <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="N13" s="2"/>
@@ -1918,22 +1950,22 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H14" s="37">
         <f>B16</f>
         <v>61</v>
       </c>
       <c r="I14" s="37">
-        <f>B39</f>
+        <f>B40</f>
         <v>79</v>
       </c>
       <c r="J14" s="38">
-        <f>B63</f>
+        <f>B65</f>
         <v>46</v>
       </c>
       <c r="K14">
-        <f>SUM(H14:J14)</f>
+        <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="N14" s="2"/>
@@ -1981,28 +2013,28 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H16" s="37">
         <f>B14</f>
         <v>13000</v>
       </c>
       <c r="I16" s="37">
-        <f>B37</f>
+        <f>B38</f>
         <v>0</v>
       </c>
       <c r="J16" s="38">
-        <f>B61</f>
+        <f>B63</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>SUM(H16:J16)</f>
+        <f t="shared" ref="K16:K23" si="2">SUM(H16:J16)</f>
         <v>13000</v>
       </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="81" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="15">
@@ -2020,28 +2052,28 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1">
         <f>B13</f>
         <v>6000</v>
       </c>
       <c r="I17" s="1">
-        <f>B36</f>
+        <f>B37</f>
         <v>0</v>
       </c>
       <c r="J17" s="10">
-        <f>B60</f>
+        <f>B62</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>SUM(H17:J17)</f>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>4000</v>
@@ -2057,28 +2089,28 @@
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18" s="37">
         <f>B18</f>
         <v>4000</v>
       </c>
       <c r="I18" s="37">
-        <f>B42</f>
+        <f>B43</f>
         <v>0</v>
       </c>
       <c r="J18" s="38">
-        <f>B65</f>
+        <f>B67</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>SUM(H18:J18)</f>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="81" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="12">
@@ -2096,28 +2128,28 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1">
         <f>B17</f>
         <v>2000</v>
       </c>
       <c r="I19" s="1">
-        <f>B41</f>
+        <f>B42</f>
         <v>0</v>
       </c>
       <c r="J19" s="10">
-        <f>B64</f>
+        <f>B66</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>SUM(H19:J19)</f>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="17">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2133,28 +2165,28 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="37">
         <f>B19</f>
         <v>13000</v>
       </c>
       <c r="I20" s="37">
-        <f>B43</f>
+        <f>B44</f>
         <v>6000</v>
       </c>
       <c r="J20" s="38">
-        <f>B66</f>
+        <f>B68</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>SUM(H20:J20)</f>
+        <f t="shared" si="2"/>
         <v>19000</v>
       </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="13">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2170,28 +2202,28 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1">
         <f>B20</f>
         <v>13000</v>
       </c>
       <c r="I21" s="1">
-        <f>B44</f>
+        <f>B45</f>
         <v>6000</v>
       </c>
       <c r="J21" s="10">
-        <f>B67</f>
+        <f>B69</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>SUM(H21:J21)</f>
+        <f t="shared" si="2"/>
         <v>19000</v>
       </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="74">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2207,109 +2239,115 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H22" s="37">
         <f>B21</f>
         <v>13000</v>
       </c>
       <c r="I22" s="37">
-        <f>B45</f>
+        <f>B46</f>
         <v>6000</v>
       </c>
       <c r="J22" s="38">
-        <f>B68</f>
+        <f>B70</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>SUM(H22:J22)</f>
+        <f t="shared" si="2"/>
         <v>19000</v>
       </c>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B4:B12)</f>
+        <v>76600</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUM(C4:C12)</f>
+        <v>32600</v>
+      </c>
+      <c r="D23" s="1">
+        <f>SUM(D4:D12)</f>
+        <v>22000</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(E4:E12)</f>
+        <v>22000</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" s="8">
         <f>B22</f>
         <v>13000</v>
       </c>
       <c r="I23" s="8">
-        <f>B46</f>
+        <f>B47</f>
         <v>6000</v>
       </c>
       <c r="J23" s="7">
-        <f>B69</f>
+        <f>B71</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>SUM(H23:J23)</f>
+        <f t="shared" si="2"/>
         <v>19000</v>
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="44" t="s">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>48</v>
+      <c r="D25" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14">
-        <f>SUM(C26:E26)</f>
-        <v>130000</v>
-      </c>
-      <c r="C26" s="18">
-        <v>50000</v>
-      </c>
-      <c r="D26" s="18">
-        <v>50000</v>
-      </c>
-      <c r="E26" s="50">
-        <v>30000</v>
+      <c r="A26" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2317,20 +2355,20 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="11">
-        <f t="shared" ref="B27:B46" si="1">SUM(C27:E27)</f>
-        <v>12000</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D27" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E27" s="51">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B27" s="14">
+        <f>SUM(C27:E27)</f>
+        <v>130000</v>
+      </c>
+      <c r="C27" s="18">
+        <v>50000</v>
+      </c>
+      <c r="D27" s="18">
+        <v>50000</v>
+      </c>
+      <c r="E27" s="50">
+        <v>30000</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2338,512 +2376,524 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="14">
-        <f t="shared" si="1"/>
-        <v>5500</v>
-      </c>
-      <c r="C28" s="18">
-        <v>0</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0</v>
-      </c>
-      <c r="E28" s="50">
-        <v>5500</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" ref="B28:B47" si="3">SUM(C28:E28)</f>
+        <v>10000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E28" s="51">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="51">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1500</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1500</v>
+      </c>
+      <c r="E29" s="50">
+        <v>4000</v>
       </c>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="18">
-        <v>0</v>
-      </c>
-      <c r="D30" s="18">
-        <v>0</v>
-      </c>
-      <c r="E30" s="50">
+        <v>6</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E30" s="51">
         <v>0</v>
       </c>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="51">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="C31" s="18">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="18">
+        <v>3000</v>
+      </c>
+      <c r="E31" s="50">
+        <v>3000</v>
       </c>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="14">
-        <f t="shared" si="1"/>
-        <v>5500</v>
-      </c>
-      <c r="C32" s="18">
-        <v>0</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0</v>
-      </c>
-      <c r="E32" s="50">
-        <v>5500</v>
+        <v>8</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="51">
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="11">
-        <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D33" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E33" s="51">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B33" s="14">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="50">
+        <v>4000</v>
       </c>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="14">
-        <f t="shared" si="1"/>
-        <v>17500</v>
-      </c>
-      <c r="C34" s="18">
-        <v>6000</v>
-      </c>
-      <c r="D34" s="18">
-        <v>6000</v>
-      </c>
-      <c r="E34" s="50">
+        <v>10</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" si="3"/>
+        <v>11000</v>
+      </c>
+      <c r="C34" s="3">
         <v>5500</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E34" s="51">
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="11">
-        <f t="shared" si="1"/>
-        <v>35000</v>
-      </c>
-      <c r="C35" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D35" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E35" s="51">
-        <v>11000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="3"/>
+        <v>14000</v>
+      </c>
+      <c r="C35" s="18">
+        <v>5000</v>
+      </c>
+      <c r="D35" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="50">
+        <v>4000</v>
+      </c>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
-      <c r="D36" s="18">
-        <v>0</v>
-      </c>
-      <c r="E36" s="50">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" si="3"/>
+        <v>25000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E36" s="51">
+        <v>7000</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="51">
+        <v>14</v>
+      </c>
+      <c r="B37" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="14">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="C38" s="18">
-        <v>28</v>
-      </c>
-      <c r="D38" s="18">
-        <v>28</v>
-      </c>
-      <c r="E38" s="50">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="51">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="14">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="C39" s="18">
+        <v>28</v>
+      </c>
+      <c r="D39" s="18">
+        <v>28</v>
+      </c>
+      <c r="E39" s="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="11">
-        <f t="shared" si="1"/>
+      <c r="B40" s="11">
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C40" s="3">
         <v>28</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40" s="3">
         <v>28</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E40" s="51">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="12">
+        <v>3000</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0</v>
+      </c>
+      <c r="D42" s="26">
+        <v>0</v>
+      </c>
+      <c r="E42" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="86"/>
+      <c r="B43" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="28">
+        <v>0</v>
+      </c>
+      <c r="D43" s="28">
+        <v>0</v>
+      </c>
+      <c r="E43" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="12">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="C44" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="87"/>
+      <c r="B45" s="17">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="C45" s="30">
+        <v>3000</v>
+      </c>
+      <c r="D45" s="30">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="87"/>
+      <c r="B46" s="13">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="88"/>
+      <c r="B47" s="40">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="C47" s="41">
+        <v>3000</v>
+      </c>
+      <c r="D47" s="41">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <f>SUM(B28:B36)</f>
+        <v>82000</v>
+      </c>
+      <c r="C48" s="89">
+        <f>SUM(C28:C36)</f>
+        <v>30000</v>
+      </c>
+      <c r="D48" s="89">
+        <f>SUM(D28:D36)</f>
+        <v>30000</v>
+      </c>
+      <c r="E48" s="1">
+        <f>SUM(E28:E36)</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="B40" s="12">
-        <v>3000</v>
-      </c>
-      <c r="C40" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E40" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C41" s="26">
-        <v>0</v>
-      </c>
-      <c r="D41" s="26">
-        <v>0</v>
-      </c>
-      <c r="E41" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="28">
-        <v>0</v>
-      </c>
-      <c r="D42" s="28">
-        <v>0</v>
-      </c>
-      <c r="E42" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="12">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="C43" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D43" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E43" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="17">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="C44" s="30">
-        <v>3000</v>
-      </c>
-      <c r="D44" s="30">
-        <v>3000</v>
-      </c>
-      <c r="E44" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
-      <c r="B45" s="13">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E45" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="40">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="C46" s="41">
-        <v>3000</v>
-      </c>
-      <c r="D46" s="41">
-        <v>3000</v>
-      </c>
-      <c r="E46" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="14">
-        <f>SUM(C50:E50)</f>
-        <v>46000</v>
-      </c>
-      <c r="C50" s="18">
-        <v>16000</v>
-      </c>
-      <c r="D50" s="18">
-        <v>0</v>
-      </c>
-      <c r="E50" s="19">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="11">
-        <f t="shared" ref="B51:B69" si="2">SUM(C51:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B52" s="14">
-        <f t="shared" si="2"/>
-        <v>11000</v>
+        <f>SUM(C52:E52)</f>
+        <v>32000</v>
       </c>
       <c r="C52" s="18">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="D52" s="18">
         <v>0</v>
       </c>
       <c r="E52" s="19">
-        <v>5500</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="11">
-        <f t="shared" si="2"/>
-        <v>5500</v>
+        <f t="shared" ref="B53:B71" si="4">SUM(C53:E53)</f>
+        <v>5000</v>
       </c>
       <c r="C53" s="3">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B54" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4500</v>
       </c>
       <c r="C54" s="18">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D54" s="18">
         <v>0</v>
       </c>
       <c r="E54" s="19">
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" s="11">
-        <f t="shared" si="2"/>
-        <v>5500</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
       </c>
       <c r="C55" s="3">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" s="14">
-        <f t="shared" si="2"/>
-        <v>11000</v>
+        <f t="shared" si="4"/>
+        <v>4500</v>
       </c>
       <c r="C56" s="18">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="D56" s="18">
         <v>0</v>
       </c>
       <c r="E56" s="19">
-        <v>5500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5500</v>
       </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -2854,29 +2904,29 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" s="14">
-        <f t="shared" si="2"/>
-        <v>5500</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
       </c>
       <c r="C58" s="18">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D58" s="18">
         <v>0</v>
       </c>
       <c r="E58" s="19">
-        <v>5500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" s="11">
-        <f t="shared" si="2"/>
-        <v>11000</v>
+        <f t="shared" si="4"/>
+        <v>5500</v>
       </c>
       <c r="C59" s="3">
         <v>0</v>
@@ -2885,16 +2935,16 @@
         <v>0</v>
       </c>
       <c r="E59" s="4">
-        <v>11000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
@@ -2903,181 +2953,246 @@
         <v>0</v>
       </c>
       <c r="E60" s="19">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B61" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4000</v>
       </c>
       <c r="C61" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="14">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="C62" s="18">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D62" s="18">
         <v>0</v>
       </c>
       <c r="E62" s="19">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="14">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="C64" s="18">
+        <v>23</v>
+      </c>
+      <c r="D64" s="18">
+        <v>0</v>
+      </c>
+      <c r="E64" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="11">
-        <f t="shared" si="2"/>
+      <c r="B65" s="11">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C65" s="3">
         <v>23</v>
       </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="77" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C64" s="26">
-        <v>0</v>
-      </c>
-      <c r="D64" s="26">
-        <v>0</v>
-      </c>
-      <c r="E64" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="79"/>
-      <c r="B65" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C65" s="28">
-        <v>0</v>
-      </c>
-      <c r="D65" s="28">
-        <v>0</v>
-      </c>
-      <c r="E65" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="77" t="s">
+      <c r="B66" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="26">
+        <v>0</v>
+      </c>
+      <c r="D66" s="26">
+        <v>0</v>
+      </c>
+      <c r="E66" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="80"/>
+      <c r="B67" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="28">
+        <v>0</v>
+      </c>
+      <c r="D67" s="28">
+        <v>0</v>
+      </c>
+      <c r="E67" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C66" s="9">
-        <v>0</v>
-      </c>
-      <c r="D66" s="9">
-        <v>0</v>
-      </c>
-      <c r="E66" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C67" s="30">
-        <v>0</v>
-      </c>
-      <c r="D67" s="30">
-        <v>0</v>
-      </c>
-      <c r="E67" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="10">
+      <c r="B68" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="79"/>
-      <c r="B69" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C69" s="28">
-        <v>0</v>
-      </c>
-      <c r="D69" s="28">
-        <v>0</v>
-      </c>
-      <c r="E69" s="29">
-        <v>0</v>
+      <c r="B69" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="30">
+        <v>0</v>
+      </c>
+      <c r="D69" s="30">
+        <v>0</v>
+      </c>
+      <c r="E69" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="79"/>
+      <c r="B70" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="80"/>
+      <c r="B71" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C71" s="28">
+        <v>0</v>
+      </c>
+      <c r="D71" s="28">
+        <v>0</v>
+      </c>
+      <c r="E71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1">
+        <f>SUM(B53:B61)</f>
+        <v>44000</v>
+      </c>
+      <c r="C72" s="89">
+        <f>SUM(C53:C61)</f>
+        <v>22000</v>
+      </c>
+      <c r="D72" s="89">
+        <f>SUM(D53:D61)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <f>SUM(E53:E61)</f>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A68:A71"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A66:A67"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:E22 A26:E46">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="A3:E22 A27:E47">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>EVEN(А1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>МОД(А1.2) = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:E69">
+  <conditionalFormatting sqref="A52:E71 A72">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>EVEN(А1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>МОД(А1.2) = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:A49">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>EVEN(А1)</formula>
     </cfRule>
